--- a/template.xlsx
+++ b/template.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,90 +574,30 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>dataset_version.id</t>
+          <t>dataset_version.dataset.name</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>dataset_version.dataset.id</t>
+          <t>dataset_version.dataset.repository.name</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>dataset_version.dataset.created</t>
+          <t>dataset_version.created</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>dataset_version.dataset.modified</t>
+          <t>dataset_version.modified</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>dataset_version.dataset.name</t>
+          <t>dataset_version.description</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.description</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.provenance</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.online_source_url</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.trusted_archive_url</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.repository.id</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.repository.created</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.repository.modified</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.repository.name</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>dataset_version.dataset.repository.description</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>dataset_version.created</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>dataset_version.modified</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>dataset_version.description</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
         <is>
           <t>dataset_version.file</t>
         </is>
@@ -840,66 +780,6 @@
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
         <is>
           <t>text</t>
         </is>
